--- a/2019_Inspection_KPI_Dashboard.xlsx
+++ b/2019_Inspection_KPI_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Analyst\Projects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3849CDB-98B6-4CD6-9D4F-52CC68E0B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B634EB-F06F-4864-A303-48B6BA46E69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51780" yWindow="-90" windowWidth="22125" windowHeight="16080" activeTab="2" xr2:uid="{A4C75D7E-1138-488E-91BB-2E7BA434D528}"/>
+    <workbookView xWindow="51780" yWindow="0" windowWidth="22125" windowHeight="16080" activeTab="2" xr2:uid="{A4C75D7E-1138-488E-91BB-2E7BA434D528}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -194,18 +205,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,11 +378,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -276,11 +410,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -302,14 +436,29 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Home Inspection</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -360,7 +509,7 @@
             <c:numRef>
               <c:f>'2019'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11900</c:v>
@@ -410,14 +559,29 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Termite </c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -468,7 +632,7 @@
             <c:numRef>
               <c:f>'2019'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>950</c:v>
@@ -518,14 +682,29 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Point</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -576,7 +755,7 @@
             <c:numRef>
               <c:f>'2019'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>900</c:v>
@@ -626,14 +805,29 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Wind Mit</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -684,7 +878,7 @@
             <c:numRef>
               <c:f>'2019'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1300</c:v>
@@ -734,14 +928,29 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Water</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -792,7 +1001,7 @@
             <c:numRef>
               <c:f>'2019'!$G$2:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>475</c:v>
@@ -842,14 +1051,29 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Sewer</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -900,7 +1124,7 @@
             <c:numRef>
               <c:f>'2019'!$H$2:$H$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>875</c:v>
@@ -950,16 +1174,34 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>Mold</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1010,7 +1252,7 @@
             <c:numRef>
               <c:f>'2019'!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>700</c:v>
@@ -1065,8 +1307,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
         <c:axId val="47831135"/>
         <c:axId val="47822015"/>
       </c:barChart>
@@ -1083,11 +1325,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1128,21 +1370,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1186,7 +1414,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,7 +1655,7 @@
             <c:numRef>
               <c:f>'2019'!$Q$2:$Q$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>15578</c:v>
@@ -1559,7 +1787,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2169,7 +2397,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2180,7 +2408,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2193,11 +2421,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2210,7 +2438,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2226,7 +2454,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2270,32 +2498,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2307,33 +2573,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2355,15 +2617,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2378,15 +2638,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2397,10 +2657,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2416,14 +2676,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2435,31 +2695,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2468,17 +2721,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2487,29 +2739,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2519,6 +2752,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -2537,7 +2788,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2545,7 +2796,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2565,10 +2816,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2585,11 +2836,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2598,14 +2849,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2635,8 +2885,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2659,14 +2909,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3696,16 +3940,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>534104</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3734,16 +3978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3772,16 +4016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4130,817 +4374,830 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB597B94-45E1-4492-B918-D10E6E1198F3}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <f>B2*425</f>
         <v>11900</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <f>ROUNDDOWN(B2 * 0.36, 0) * 95</f>
         <v>950</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>ROUNDDOWN(B2 * 0.43, 0) * 75</f>
         <v>900</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>ROUNDDOWN(B2 * 0.72, 0) * 65</f>
         <v>1300</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <f>ROUNDDOWN(B2 * 0.18, 0) * 95</f>
         <v>475</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f>ROUNDDOWN(B2 * 0.18, 0) * 175</f>
         <v>875</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <f>ROUNDDOWN(B2 * 0.15, 0) * 175</f>
         <v>700</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>99</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>110</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>160</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <f>B2*26</f>
         <v>728</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>375</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <f>B2*7</f>
         <v>196</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <f>SUM(C2:I2) - SUM(J2:O2)</f>
         <v>15578</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C13" si="0">B3*425</f>
         <v>9775</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f>ROUNDDOWN(B3 * 0.36, 0) * 95</f>
         <v>760</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E13" si="1">ROUNDDOWN(B3 * 0.43, 0) * 75</f>
         <v>675</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F13" si="2">ROUNDDOWN(B3 * 0.72, 0) * 65</f>
         <v>1040</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G13" si="3">ROUNDDOWN(B3 * 0.18, 0) * 95</f>
         <v>380</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H13" si="4">ROUNDDOWN(B3 * 0.18, 0) * 175</f>
         <v>700</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I13" si="5">ROUNDDOWN(B3 * 0.15, 0) * 175</f>
         <v>525</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>99</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>110</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>160</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N13" si="6">B3*26</f>
         <v>598</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>375</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <f t="shared" ref="P3:P13" si="7">B3*7</f>
         <v>161</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:Q13" si="8">SUM(C3:I3) - SUM(J3:O3)</f>
         <v>12463</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>9775</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D13" si="9">ROUNDDOWN(B4 * 0.36, 0) * 95</f>
         <v>760</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>1040</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>99</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>110</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>160</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <f t="shared" si="6"/>
         <v>598</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>375</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <f t="shared" si="7"/>
         <v>161</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <f t="shared" si="8"/>
         <v>12463</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>26</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>11050</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" si="9"/>
         <v>855</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>825</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>1170</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>99</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>110</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>160</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <f t="shared" si="6"/>
         <v>676</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>375</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <f t="shared" si="8"/>
         <v>14035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="9"/>
         <v>760</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>99</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>50</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>110</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>160</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>375</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <f t="shared" si="8"/>
         <v>13002</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>7225</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" si="9"/>
         <v>570</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>99</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>50</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>110</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>160</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <f t="shared" si="6"/>
         <v>442</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>375</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <f t="shared" si="8"/>
         <v>9024</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="9"/>
         <v>760</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>99</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>110</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>160</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>375</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <f t="shared" si="8"/>
         <v>13002</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>8925</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="9"/>
         <v>665</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>975</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>99</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>110</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>160</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>375</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <f t="shared" si="8"/>
         <v>11235</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>8925</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="9"/>
         <v>665</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>975</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>99</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>110</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>160</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>375</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <f t="shared" si="8"/>
         <v>11235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="9"/>
         <v>665</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>99</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>110</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>160</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <f t="shared" si="6"/>
         <v>520</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>375</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="6">
         <f t="shared" si="8"/>
         <v>10696</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f t="shared" si="9"/>
         <v>475</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>715</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>99</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>110</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>160</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <f t="shared" si="6"/>
         <v>416</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>375</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <f t="shared" si="8"/>
         <v>8120</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>6375</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f t="shared" si="9"/>
         <v>475</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>99</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>50</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>110</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>160</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>375</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <f t="shared" si="8"/>
         <v>7656</v>
       </c>
@@ -4955,74 +5212,74 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="7">
         <f>SUM('2019'!B2:B13)</f>
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>SUM('2019'!C2:I13)</f>
         <v>154745</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>SUM('2019'!J2:P13)</f>
         <v>18042</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>B2 - B3</f>
         <v>136703</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>B1 / 12</f>
         <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>B2 / B1</f>
         <v>599.78682170542641</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <f>B4 / B2</f>
         <v>0.88340818766357554</v>
       </c>
@@ -5036,8 +5293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE92D05-E54E-41B9-9134-703049213850}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5045,47 +5302,47 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="27.95" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="10">
         <f>'KPI Summary'!B2</f>
         <v>154745</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="27.95" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <f>'KPI Summary'!B4</f>
         <v>136703</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="27.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <f>'KPI Summary'!B7</f>
         <v>0.88340818766357554</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="27.95" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <f>'KPI Summary'!B1</f>
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <f>'KPI Summary'!B5</f>
         <v>21.5</v>
       </c>
